--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_st03.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_st03.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Arriving at Rhodes Island, Dusk recalls a memory of the past. What concerns her the most now is the identity of one 'Kal’tsit' and one 'Doctor'.
+    <t xml:space="preserve">Arriving at Rhodes Island, Dusk recalls a memory of the past. What concerns her the most now is the identity of one 'Kal'tsit' and one 'Doctor'.
 </t>
   </si>
   <si>
